--- a/your-code/PivotTable vs Formula Exercise.xlsx
+++ b/your-code/PivotTable vs Formula Exercise.xlsx
@@ -1,29 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c646aa9d978bc39d/Documents/Module 4/Week 1/Day 2 - Excel Pivot Tables and Macros/Lab/lab_2_Pivot-tables_vs_formulas/your-code/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\profe\Documents\Ironhack\lab-excel-pivot-tables-vs-formulas\your-code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{A3A7DBBF-F3AC-4897-BE43-8F94BEB89478}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7683A57F-D9F9-4F18-9995-6F2FB9CE459C}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-111" yWindow="-111" windowWidth="23254" windowHeight="12454"/>
   </bookViews>
   <sheets>
     <sheet name="Questions" sheetId="3" r:id="rId1"/>
-    <sheet name="data" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId2"/>
+    <sheet name="data" sheetId="2" r:id="rId3"/>
+    <sheet name="New Shopper" sheetId="5" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">data!$A$1:$E$39</definedName>
-    <definedName name="ARTÍCULOS" localSheetId="1">data!$A$1:$E$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">data!$A$1:$E$39</definedName>
+    <definedName name="ARTÍCULOS" localSheetId="2">data!$A$1:$E$38</definedName>
     <definedName name="ARTÍCULOS">#REF!</definedName>
     <definedName name="data">data!$A$1:$E$39</definedName>
     <definedName name="miLista">data!$A$1:$E$4500</definedName>
+    <definedName name="SalesData">data!$1:$1048576</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId5"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="77">
   <si>
     <t>China</t>
   </si>
@@ -230,16 +235,58 @@
   </si>
   <si>
     <t>Lamp Base</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>(blank)</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Count of Price</t>
+  </si>
+  <si>
+    <t>Total Count of Price</t>
+  </si>
+  <si>
+    <t>Total Sum of Price</t>
+  </si>
+  <si>
+    <t>Sum of Price</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>CERAMICS Total</t>
+  </si>
+  <si>
+    <t>CLOTHING Total</t>
+  </si>
+  <si>
+    <t>HARDWARE Total</t>
+  </si>
+  <si>
+    <t>SPORTS Total</t>
+  </si>
+  <si>
+    <t>TOYS Total</t>
+  </si>
+  <si>
+    <t>(blank) Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-* #,##0.00[$€]_-;\-* #,##0.00[$€]_-;_-* &quot;-&quot;??[$€]_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="MS Sans Serif"/>
@@ -260,6 +307,20 @@
       <sz val="10"/>
       <name val="MS Sans Serif"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="18"/>
+      <name val="Baskerville Old Face"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Baskerville Old Face"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -275,7 +336,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -298,12 +359,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -327,9 +399,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Euro" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Euro" xfId="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -399,10 +481,673 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Geo Smith" refreshedDate="45951.631006597221" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="39">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:F1048576" sheet="data"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Section" numFmtId="0">
+      <sharedItems containsBlank="1" count="6">
+        <s v="CERAMICS"/>
+        <s v="CLOTHING"/>
+        <s v="SPORTS"/>
+        <s v="HARDWARE"/>
+        <s v="TOYS"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Item" numFmtId="0">
+      <sharedItems containsBlank="1" count="38">
+        <s v="Pipes"/>
+        <s v="Decorative Plate"/>
+        <s v="Tea Set"/>
+        <s v="Ashtray"/>
+        <s v="Flower Pot"/>
+        <s v="China Pitcher"/>
+        <s v="Men's Card"/>
+        <s v="Women's Pants"/>
+        <s v="Men's Shirt"/>
+        <s v="Women's Blouse"/>
+        <s v="Leather Jacket"/>
+        <s v="Men's Coat"/>
+        <s v="Women's Coat"/>
+        <s v="Leather Belt"/>
+        <s v="Tennis Racket"/>
+        <s v="Tracksuit"/>
+        <s v="Electric Train"/>
+        <s v="Olympic Pistol"/>
+        <s v="Skateboard"/>
+        <s v="Basketball"/>
+        <s v="Soccer Ball"/>
+        <s v="Sweatshirt"/>
+        <s v="Mountain Bike"/>
+        <s v="Screwdriver"/>
+        <s v="Handsaw"/>
+        <s v="Wrench"/>
+        <s v="Pliers"/>
+        <s v="Hammer"/>
+        <s v="Large File"/>
+        <s v="Drill Bit Set"/>
+        <s v="Remote Control Car"/>
+        <s v="Walker"/>
+        <s v="Video Game Console"/>
+        <s v="Walking Doll"/>
+        <s v="Soldier Fort"/>
+        <s v="Sound Gun"/>
+        <s v="Lamp Base"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2018-05-12T00:00:00" maxDate="2019-01-30T00:00:00"/>
+    </cacheField>
+    <cacheField name="Country" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Price" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="3.6060726263026939" maxValue="1254.4805452381811"/>
+    </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="2018" maxValue="2019" count="3">
+        <n v="2019"/>
+        <n v="2018"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="39">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <d v="2019-01-27T00:00:00"/>
+    <s v="China"/>
+    <n v="140.35435673674468"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2018-12-24T00:00:00"/>
+    <s v="China"/>
+    <n v="45.07590782878367"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="2"/>
+    <d v="2019-01-15T00:00:00"/>
+    <s v="China"/>
+    <n v="36.06"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="3"/>
+    <d v="2018-05-12T00:00:00"/>
+    <s v="Japan"/>
+    <n v="16.45571141802796"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="4"/>
+    <d v="2019-01-05T00:00:00"/>
+    <s v="Spain"/>
+    <n v="24.202757443534914"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="5"/>
+    <d v="2018-11-23T00:00:00"/>
+    <s v="China"/>
+    <n v="106.47530441263088"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="6"/>
+    <d v="2018-10-23T00:00:00"/>
+    <s v="Italy"/>
+    <n v="237.14735614775282"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="7"/>
+    <d v="2018-09-10T00:00:00"/>
+    <s v="Morocco"/>
+    <n v="145.19250417703412"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="8"/>
+    <d v="2019-01-07T00:00:00"/>
+    <s v="Spain"/>
+    <n v="55.94220667604246"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="9"/>
+    <d v="2018-12-20T00:00:00"/>
+    <s v="China"/>
+    <n v="84.213816066255575"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="10"/>
+    <d v="2018-09-09T00:00:00"/>
+    <s v="Italy"/>
+    <n v="435.5775125311024"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="11"/>
+    <d v="2019-01-14T00:00:00"/>
+    <s v="Italy"/>
+    <n v="203.268303823639"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="12"/>
+    <d v="2019-01-29T00:00:00"/>
+    <s v="Morocco"/>
+    <n v="300.06130323464714"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="13"/>
+    <d v="2019-01-03T00:00:00"/>
+    <s v="Spain"/>
+    <n v="3.6060726263026939"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="14"/>
+    <d v="2018-09-14T00:00:00"/>
+    <s v="USA"/>
+    <n v="77.891168728138183"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="15"/>
+    <d v="2018-08-16T00:00:00"/>
+    <s v="USA"/>
+    <n v="193.39367494861347"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="16"/>
+    <d v="2018-07-03T00:00:00"/>
+    <s v="Japan"/>
+    <n v="1254.4805452381811"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="17"/>
+    <d v="2019-01-04T00:00:00"/>
+    <s v="Sweden"/>
+    <n v="38.945584364069092"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="18"/>
+    <d v="2019-01-21T00:00:00"/>
+    <s v="Morocco"/>
+    <n v="93.036673758609496"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="19"/>
+    <d v="2019-01-16T00:00:00"/>
+    <s v="Japan"/>
+    <n v="62.727633334535362"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="20"/>
+    <d v="2018-12-08T00:00:00"/>
+    <s v="Spain"/>
+    <n v="36.595627035928501"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="21"/>
+    <d v="2018-12-12T00:00:00"/>
+    <s v="USA"/>
+    <n v="365.98031084346042"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="22"/>
+    <d v="2018-11-07T00:00:00"/>
+    <s v="USA"/>
+    <n v="470.41818422223025"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <d v="2018-10-05T00:00:00"/>
+    <s v="Spain"/>
+    <n v="5.5233012392869592"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="24"/>
+    <d v="2018-10-28T00:00:00"/>
+    <s v="France"/>
+    <n v="25.170386931592802"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="25"/>
+    <d v="2019-01-15T00:00:00"/>
+    <s v="USA"/>
+    <n v="20.332239491303355"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="26"/>
+    <d v="2019-01-26T00:00:00"/>
+    <s v="Italy"/>
+    <n v="5.613453054944527"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="27"/>
+    <d v="2018-10-17T00:00:00"/>
+    <s v="Spain"/>
+    <n v="9.4959912492637599"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="23"/>
+    <d v="2019-01-18T00:00:00"/>
+    <s v="France"/>
+    <n v="7.5487120310603055"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="28"/>
+    <d v="2018-11-19T00:00:00"/>
+    <s v="Spain"/>
+    <n v="18.390970394143739"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="29"/>
+    <d v="2018-11-06T00:00:00"/>
+    <s v="Taiwan"/>
+    <n v="12.579183344752563"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="30"/>
+    <d v="2018-12-07T00:00:00"/>
+    <s v="Morocco"/>
+    <n v="132.87175603716659"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="31"/>
+    <d v="2018-12-14T00:00:00"/>
+    <s v="Japan"/>
+    <n v="86.113014316108334"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="32"/>
+    <d v="2019-01-19T00:00:00"/>
+    <s v="USA"/>
+    <n v="368.78703737093264"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="33"/>
+    <d v="2018-10-14T00:00:00"/>
+    <s v="Spain"/>
+    <n v="87.549433245585561"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="34"/>
+    <d v="2018-10-09T00:00:00"/>
+    <s v="Japan"/>
+    <n v="119.75166179846862"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="35"/>
+    <d v="2018-08-05T00:00:00"/>
+    <s v="Spain"/>
+    <n v="47.708340845984637"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="36"/>
+    <d v="2018-06-06T00:00:00"/>
+    <s v="Turkey"/>
+    <n v="33.133797314677921"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="37"/>
+    <m/>
+    <m/>
+    <m/>
+    <x v="2"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable9" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="A3:J50" firstHeaderRow="1" firstDataRow="3" firstDataCol="2"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="7">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+      <items count="39">
+        <item x="3"/>
+        <item x="19"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="29"/>
+        <item x="16"/>
+        <item x="4"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="28"/>
+        <item x="13"/>
+        <item x="10"/>
+        <item x="6"/>
+        <item x="11"/>
+        <item x="8"/>
+        <item x="22"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="26"/>
+        <item x="30"/>
+        <item x="23"/>
+        <item x="18"/>
+        <item x="20"/>
+        <item x="34"/>
+        <item x="35"/>
+        <item x="21"/>
+        <item x="2"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="32"/>
+        <item x="31"/>
+        <item x="33"/>
+        <item x="9"/>
+        <item x="12"/>
+        <item x="7"/>
+        <item x="25"/>
+        <item x="37"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField compact="0" outline="0" showAll="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="45">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i t="default">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+      <x v="37"/>
+    </i>
+    <i t="default">
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="2">
+    <field x="5"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+    <i t="grand" i="1">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="Sum of Price" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Count of Price" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -440,9 +1185,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -477,7 +1222,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -512,7 +1257,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -685,41 +1430,41 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68408F57-2609-4CF7-9328-02FE8121296B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:A8"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
         <v>11</v>
       </c>
@@ -731,42 +1476,1092 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:J50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.765625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C3" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="C4">
+        <v>2018</v>
+      </c>
+      <c r="E4">
+        <v>2019</v>
+      </c>
+      <c r="G4" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F5" t="s">
+        <v>66</v>
+      </c>
+      <c r="G5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="18">
+        <v>16.45571141802796</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="18"/>
+      <c r="H6" s="18"/>
+      <c r="I6" s="18">
+        <v>16.45571141802796</v>
+      </c>
+      <c r="J6" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="18">
+        <v>106.47530441263088</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="18"/>
+      <c r="H7" s="18"/>
+      <c r="I7" s="18">
+        <v>106.47530441263088</v>
+      </c>
+      <c r="J7" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="18">
+        <v>45.07590782878367</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="18"/>
+      <c r="H8" s="18"/>
+      <c r="I8" s="18">
+        <v>45.07590782878367</v>
+      </c>
+      <c r="J8" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18">
+        <v>24.202757443534914</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18">
+        <v>24.202757443534914</v>
+      </c>
+      <c r="J9" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="18"/>
+      <c r="D10" s="18"/>
+      <c r="E10" s="18">
+        <v>140.35435673674468</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="18">
+        <v>140.35435673674468</v>
+      </c>
+      <c r="J10" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="18">
+        <v>36.06</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18">
+        <v>36.06</v>
+      </c>
+      <c r="J11" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="C12" s="18">
+        <v>168.00692365944252</v>
+      </c>
+      <c r="D12" s="18">
+        <v>3</v>
+      </c>
+      <c r="E12" s="18">
+        <v>200.6171141802796</v>
+      </c>
+      <c r="F12" s="18">
+        <v>3</v>
+      </c>
+      <c r="G12" s="18"/>
+      <c r="H12" s="18"/>
+      <c r="I12" s="18">
+        <v>368.62403783972212</v>
+      </c>
+      <c r="J12" s="18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="18"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="18">
+        <v>3.6060726263026939</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18"/>
+      <c r="H13" s="18"/>
+      <c r="I13" s="18">
+        <v>3.6060726263026939</v>
+      </c>
+      <c r="J13" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="18">
+        <v>435.5775125311024</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="18"/>
+      <c r="I14" s="18">
+        <v>435.5775125311024</v>
+      </c>
+      <c r="J14" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="18">
+        <v>237.14735614775282</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="18"/>
+      <c r="H15" s="18"/>
+      <c r="I15" s="18">
+        <v>237.14735614775282</v>
+      </c>
+      <c r="J15" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="18"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="18">
+        <v>203.268303823639</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18"/>
+      <c r="H16" s="18"/>
+      <c r="I16" s="18">
+        <v>203.268303823639</v>
+      </c>
+      <c r="J16" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18">
+        <v>55.94220667604246</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="18">
+        <v>55.94220667604246</v>
+      </c>
+      <c r="J17" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="18">
+        <v>84.213816066255575</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18"/>
+      <c r="F18" s="18"/>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
+      <c r="I18" s="18">
+        <v>84.213816066255575</v>
+      </c>
+      <c r="J18" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="18">
+        <v>300.06130323464714</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18"/>
+      <c r="H19" s="18"/>
+      <c r="I19" s="18">
+        <v>300.06130323464714</v>
+      </c>
+      <c r="J19" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="18">
+        <v>145.19250417703412</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18"/>
+      <c r="F20" s="18"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18">
+        <v>145.19250417703412</v>
+      </c>
+      <c r="J20" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="18">
+        <v>902.13118892214504</v>
+      </c>
+      <c r="D21" s="18">
+        <v>4</v>
+      </c>
+      <c r="E21" s="18">
+        <v>562.87788636063124</v>
+      </c>
+      <c r="F21" s="18">
+        <v>4</v>
+      </c>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18">
+        <v>1465.0090752827764</v>
+      </c>
+      <c r="J21" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="18">
+        <v>12.579183344752563</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18">
+        <v>12.579183344752563</v>
+      </c>
+      <c r="J22" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="18">
+        <v>9.4959912492637599</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18">
+        <v>9.4959912492637599</v>
+      </c>
+      <c r="J23" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="18">
+        <v>25.170386931592802</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18"/>
+      <c r="F24" s="18"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18">
+        <v>25.170386931592802</v>
+      </c>
+      <c r="J24" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="18">
+        <v>18.390970394143739</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18"/>
+      <c r="F25" s="18"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18">
+        <v>18.390970394143739</v>
+      </c>
+      <c r="J25" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="18"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18">
+        <v>5.613453054944527</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18">
+        <v>5.613453054944527</v>
+      </c>
+      <c r="J26" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="18">
+        <v>5.5233012392869592</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>7.5487120310603055</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18">
+        <v>13.072013270347265</v>
+      </c>
+      <c r="J27" s="18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18">
+        <v>20.332239491303355</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18">
+        <v>20.332239491303355</v>
+      </c>
+      <c r="J28" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="18">
+        <v>71.159833159039835</v>
+      </c>
+      <c r="D29" s="18">
+        <v>5</v>
+      </c>
+      <c r="E29" s="18">
+        <v>33.494404577308188</v>
+      </c>
+      <c r="F29" s="18">
+        <v>3</v>
+      </c>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18">
+        <v>104.65423773634802</v>
+      </c>
+      <c r="J29" s="18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="C30" s="18"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18">
+        <v>62.727633334535362</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18">
+        <v>62.727633334535362</v>
+      </c>
+      <c r="J30" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="18">
+        <v>1254.4805452381811</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18"/>
+      <c r="F31" s="18"/>
+      <c r="G31" s="18"/>
+      <c r="H31" s="18"/>
+      <c r="I31" s="18">
+        <v>1254.4805452381811</v>
+      </c>
+      <c r="J31" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="18">
+        <v>470.41818422223025</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18">
+        <v>470.41818422223025</v>
+      </c>
+      <c r="J32" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="18">
+        <v>38.945584364069092</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18">
+        <v>38.945584364069092</v>
+      </c>
+      <c r="J33" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18">
+        <v>93.036673758609496</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="18">
+        <v>93.036673758609496</v>
+      </c>
+      <c r="J34" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>46</v>
+      </c>
+      <c r="C35" s="18">
+        <v>36.595627035928501</v>
+      </c>
+      <c r="D35" s="18">
+        <v>1</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18">
+        <v>36.595627035928501</v>
+      </c>
+      <c r="J35" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>47</v>
+      </c>
+      <c r="C36" s="18">
+        <v>365.98031084346042</v>
+      </c>
+      <c r="D36" s="18">
+        <v>1</v>
+      </c>
+      <c r="E36" s="18"/>
+      <c r="F36" s="18"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="18">
+        <v>365.98031084346042</v>
+      </c>
+      <c r="J36" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C37" s="18">
+        <v>77.891168728138183</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1</v>
+      </c>
+      <c r="E37" s="18"/>
+      <c r="F37" s="18"/>
+      <c r="G37" s="18"/>
+      <c r="H37" s="18"/>
+      <c r="I37" s="18">
+        <v>77.891168728138183</v>
+      </c>
+      <c r="J37" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="18">
+        <v>193.39367494861347</v>
+      </c>
+      <c r="D38" s="18">
+        <v>1</v>
+      </c>
+      <c r="E38" s="18"/>
+      <c r="F38" s="18"/>
+      <c r="G38" s="18"/>
+      <c r="H38" s="18"/>
+      <c r="I38" s="18">
+        <v>193.39367494861347</v>
+      </c>
+      <c r="J38" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C39" s="18">
+        <v>2398.7595110165521</v>
+      </c>
+      <c r="D39" s="18">
+        <v>6</v>
+      </c>
+      <c r="E39" s="18">
+        <v>194.70989145721393</v>
+      </c>
+      <c r="F39" s="18">
+        <v>3</v>
+      </c>
+      <c r="G39" s="18"/>
+      <c r="H39" s="18"/>
+      <c r="I39" s="18">
+        <v>2593.469402473766</v>
+      </c>
+      <c r="J39" s="18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>16</v>
+      </c>
+      <c r="B40" t="s">
+        <v>62</v>
+      </c>
+      <c r="C40" s="18">
+        <v>33.133797314677921</v>
+      </c>
+      <c r="D40" s="18">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18"/>
+      <c r="F40" s="18"/>
+      <c r="G40" s="18"/>
+      <c r="H40" s="18"/>
+      <c r="I40" s="18">
+        <v>33.133797314677921</v>
+      </c>
+      <c r="J40" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B41" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="18">
+        <v>132.87175603716659</v>
+      </c>
+      <c r="D41" s="18">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18"/>
+      <c r="F41" s="18"/>
+      <c r="G41" s="18"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="18">
+        <v>132.87175603716659</v>
+      </c>
+      <c r="J41" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B42" t="s">
+        <v>60</v>
+      </c>
+      <c r="C42" s="18">
+        <v>119.75166179846862</v>
+      </c>
+      <c r="D42" s="18">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18"/>
+      <c r="F42" s="18"/>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18"/>
+      <c r="I42" s="18">
+        <v>119.75166179846862</v>
+      </c>
+      <c r="J42" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C43" s="18">
+        <v>47.708340845984637</v>
+      </c>
+      <c r="D43" s="18">
+        <v>1</v>
+      </c>
+      <c r="E43" s="18"/>
+      <c r="F43" s="18"/>
+      <c r="G43" s="18"/>
+      <c r="H43" s="18"/>
+      <c r="I43" s="18">
+        <v>47.708340845984637</v>
+      </c>
+      <c r="J43" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B44" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="18"/>
+      <c r="D44" s="18"/>
+      <c r="E44" s="18">
+        <v>368.78703737093264</v>
+      </c>
+      <c r="F44" s="18">
+        <v>1</v>
+      </c>
+      <c r="G44" s="18"/>
+      <c r="H44" s="18"/>
+      <c r="I44" s="18">
+        <v>368.78703737093264</v>
+      </c>
+      <c r="J44" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B45" t="s">
+        <v>57</v>
+      </c>
+      <c r="C45" s="18">
+        <v>86.113014316108334</v>
+      </c>
+      <c r="D45" s="18">
+        <v>1</v>
+      </c>
+      <c r="E45" s="18"/>
+      <c r="F45" s="18"/>
+      <c r="G45" s="18"/>
+      <c r="H45" s="18"/>
+      <c r="I45" s="18">
+        <v>86.113014316108334</v>
+      </c>
+      <c r="J45" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C46" s="18">
+        <v>87.549433245585561</v>
+      </c>
+      <c r="D46" s="18">
+        <v>1</v>
+      </c>
+      <c r="E46" s="18"/>
+      <c r="F46" s="18"/>
+      <c r="G46" s="18"/>
+      <c r="H46" s="18"/>
+      <c r="I46" s="18">
+        <v>87.549433245585561</v>
+      </c>
+      <c r="J46" s="18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="C47" s="18">
+        <v>507.12800355799163</v>
+      </c>
+      <c r="D47" s="18">
+        <v>6</v>
+      </c>
+      <c r="E47" s="18">
+        <v>368.78703737093264</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="G47" s="18"/>
+      <c r="H47" s="18"/>
+      <c r="I47" s="18">
+        <v>875.91504092892433</v>
+      </c>
+      <c r="J47" s="18">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" t="s">
+        <v>64</v>
+      </c>
+      <c r="C48" s="18"/>
+      <c r="D48" s="18"/>
+      <c r="E48" s="18"/>
+      <c r="F48" s="18"/>
+      <c r="G48" s="18"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="18"/>
+      <c r="J48" s="18"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>76</v>
+      </c>
+      <c r="C49" s="18"/>
+      <c r="D49" s="18"/>
+      <c r="E49" s="18"/>
+      <c r="F49" s="18"/>
+      <c r="G49" s="18"/>
+      <c r="H49" s="18"/>
+      <c r="I49" s="18"/>
+      <c r="J49" s="18"/>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>65</v>
+      </c>
+      <c r="C50" s="18">
+        <v>4047.185460315171</v>
+      </c>
+      <c r="D50" s="18">
+        <v>24</v>
+      </c>
+      <c r="E50" s="18">
+        <v>1360.4863339463657</v>
+      </c>
+      <c r="F50" s="18">
+        <v>14</v>
+      </c>
+      <c r="G50" s="18"/>
+      <c r="H50" s="18"/>
+      <c r="I50" s="18">
+        <v>5407.6717942615369</v>
+      </c>
+      <c r="J50" s="18">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr applyStyles="1"/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.6" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="16.3046875" customWidth="1"/>
+    <col min="2" max="2" width="26.84375" customWidth="1"/>
+    <col min="3" max="3" width="22.15234375" style="16" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="14.5546875" customWidth="1"/>
-    <col min="6" max="6" width="8.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.77734375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="14" max="34" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="36" max="42" width="13.5546875" bestFit="1" customWidth="1"/>
-    <col min="43" max="43" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="44" max="60" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.53515625" customWidth="1"/>
+    <col min="6" max="6" width="23.765625" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="34" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="44" max="60" width="13.53515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -775,8 +2570,11 @@
       <c r="E1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A2" s="3" t="s">
         <v>12</v>
       </c>
@@ -792,8 +2590,12 @@
       <c r="E2" s="6">
         <v>140.35435673674468</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F2" s="14">
+        <f>YEAR(C2)</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A3" s="3" t="s">
         <v>12</v>
       </c>
@@ -809,8 +2611,12 @@
       <c r="E3" s="6">
         <v>45.07590782878367</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F39" si="0">YEAR(C3)</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A4" s="3" t="s">
         <v>12</v>
       </c>
@@ -826,8 +2632,12 @@
       <c r="E4" s="6">
         <v>36.06</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F4" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A5" s="3" t="s">
         <v>12</v>
       </c>
@@ -843,8 +2653,12 @@
       <c r="E5" s="6">
         <v>16.45571141802796</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A6" s="3" t="s">
         <v>12</v>
       </c>
@@ -860,8 +2674,12 @@
       <c r="E6" s="6">
         <v>24.202757443534914</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
         <v>12</v>
       </c>
@@ -877,8 +2695,12 @@
       <c r="E7" s="6">
         <v>106.47530441263088</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -894,8 +2716,12 @@
       <c r="E8" s="6">
         <v>237.14735614775282</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -911,8 +2737,12 @@
       <c r="E9" s="6">
         <v>145.19250417703412</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F9" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -928,8 +2758,12 @@
       <c r="E10" s="6">
         <v>55.94220667604246</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F10" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -945,8 +2779,12 @@
       <c r="E11" s="6">
         <v>84.213816066255575</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F11" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -962,8 +2800,12 @@
       <c r="E12" s="6">
         <v>435.5775125311024</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F12" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -979,8 +2821,12 @@
       <c r="E13" s="6">
         <v>203.268303823639</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F13" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -996,8 +2842,12 @@
       <c r="E14" s="6">
         <v>300.06130323464714</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F14" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1013,8 +2863,12 @@
       <c r="E15" s="6">
         <v>3.6060726263026939</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F15" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1030,8 +2884,12 @@
       <c r="E16" s="6">
         <v>77.891168728138183</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F16" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A17" s="3" t="s">
         <v>14</v>
       </c>
@@ -1047,8 +2905,12 @@
       <c r="E17" s="6">
         <v>193.39367494861347</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A18" s="3" t="s">
         <v>14</v>
       </c>
@@ -1064,8 +2926,12 @@
       <c r="E18" s="6">
         <v>1254.4805452381811</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A19" s="3" t="s">
         <v>14</v>
       </c>
@@ -1081,8 +2947,12 @@
       <c r="E19" s="6">
         <v>38.945584364069092</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A20" s="3" t="s">
         <v>14</v>
       </c>
@@ -1098,8 +2968,12 @@
       <c r="E20" s="6">
         <v>93.036673758609496</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1115,8 +2989,12 @@
       <c r="E21" s="6">
         <v>62.727633334535362</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1132,8 +3010,12 @@
       <c r="E22" s="6">
         <v>36.595627035928501</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F22" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1149,8 +3031,12 @@
       <c r="E23" s="6">
         <v>365.98031084346042</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F23" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1166,8 +3052,12 @@
       <c r="E24" s="6">
         <v>470.41818422223025</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F24" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A25" s="3" t="s">
         <v>15</v>
       </c>
@@ -1183,8 +3073,12 @@
       <c r="E25" s="6">
         <v>5.5233012392869592</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F25" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A26" s="3" t="s">
         <v>15</v>
       </c>
@@ -1200,8 +3094,12 @@
       <c r="E26" s="6">
         <v>25.170386931592802</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F26" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
@@ -1217,8 +3115,12 @@
       <c r="E27" s="6">
         <v>20.332239491303355</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F27" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A28" s="3" t="s">
         <v>15</v>
       </c>
@@ -1234,8 +3136,12 @@
       <c r="E28" s="6">
         <v>5.613453054944527</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F28" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A29" s="3" t="s">
         <v>15</v>
       </c>
@@ -1251,8 +3157,12 @@
       <c r="E29" s="6">
         <v>9.4959912492637599</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F29" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A30" s="3" t="s">
         <v>15</v>
       </c>
@@ -1268,8 +3178,12 @@
       <c r="E30" s="6">
         <v>7.5487120310603055</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F30" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A31" s="3" t="s">
         <v>15</v>
       </c>
@@ -1285,8 +3199,12 @@
       <c r="E31" s="6">
         <v>18.390970394143739</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F31" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A32" s="3" t="s">
         <v>15</v>
       </c>
@@ -1302,8 +3220,12 @@
       <c r="E32" s="6">
         <v>12.579183344752563</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F32" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A33" s="3" t="s">
         <v>16</v>
       </c>
@@ -1319,8 +3241,12 @@
       <c r="E33" s="6">
         <v>132.87175603716659</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F33" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A34" s="3" t="s">
         <v>16</v>
       </c>
@@ -1336,8 +3262,12 @@
       <c r="E34" s="6">
         <v>86.113014316108334</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F34" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A35" s="3" t="s">
         <v>16</v>
       </c>
@@ -1353,8 +3283,12 @@
       <c r="E35" s="6">
         <v>368.78703737093264</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F35" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A36" s="3" t="s">
         <v>16</v>
       </c>
@@ -1370,8 +3304,12 @@
       <c r="E36" s="6">
         <v>87.549433245585561</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F36" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A37" s="3" t="s">
         <v>16</v>
       </c>
@@ -1387,8 +3325,12 @@
       <c r="E37" s="6">
         <v>119.75166179846862</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F37" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A38" s="3" t="s">
         <v>16</v>
       </c>
@@ -1404,8 +3346,12 @@
       <c r="E38" s="6">
         <v>47.708340845984637</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="F38" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A39" s="7" t="s">
         <v>16</v>
       </c>
@@ -1421,9 +3367,13 @@
       <c r="E39" s="8">
         <v>33.133797314677921</v>
       </c>
+      <c r="F39" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E39" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:E39"/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="0" r:id="rId1"/>
@@ -1432,4 +3382,920 @@
     <oddFooter>Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="12.9" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.3046875" customWidth="1"/>
+    <col min="2" max="2" width="26.84375" customWidth="1"/>
+    <col min="3" max="3" width="22.15234375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="17" customWidth="1"/>
+    <col min="5" max="5" width="14.53515625" customWidth="1"/>
+    <col min="6" max="6" width="23.765625" customWidth="1"/>
+    <col min="7" max="7" width="13.765625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="17.765625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.69140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="34" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="36" max="42" width="13.53515625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="12.3046875" bestFit="1" customWidth="1"/>
+    <col min="44" max="60" width="13.53515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="4">
+        <v>43492</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="e">
+        <f>SUMIFS(Price,Category,$A5,Year,B$3)</f>
+        <v>#NAME?</v>
+      </c>
+      <c r="F2" s="14">
+        <f>YEAR(C2)</f>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4">
+        <v>43458</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6">
+        <v>45.07590782878367</v>
+      </c>
+      <c r="F3" s="14">
+        <f t="shared" ref="F3:F47" si="0">YEAR(C3)</f>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="4">
+        <v>43480</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="6">
+        <v>36.06</v>
+      </c>
+      <c r="F4" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A5" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="4">
+        <v>43232</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="6">
+        <v>16.45571141802796</v>
+      </c>
+      <c r="F5" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="4">
+        <v>43470</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="6">
+        <v>24.202757443534914</v>
+      </c>
+      <c r="F6" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A7" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="4">
+        <v>43427</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="6">
+        <v>106.47530441263088</v>
+      </c>
+      <c r="F7" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A16" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="4">
+        <v>43396</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="6">
+        <v>237.14735614775282</v>
+      </c>
+      <c r="F16" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A17" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43353</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17" s="6">
+        <v>145.19250417703412</v>
+      </c>
+      <c r="F17" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="4">
+        <v>43472</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" s="6">
+        <v>55.94220667604246</v>
+      </c>
+      <c r="F18" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="4">
+        <v>43454</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="E19" s="6">
+        <v>84.213816066255575</v>
+      </c>
+      <c r="F19" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="4">
+        <v>43352</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E20" s="6">
+        <v>435.5775125311024</v>
+      </c>
+      <c r="F20" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A21" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="4">
+        <v>43479</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" s="6">
+        <v>203.268303823639</v>
+      </c>
+      <c r="F21" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="4">
+        <v>43494</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="6">
+        <v>300.06130323464714</v>
+      </c>
+      <c r="F22" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A23" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C23" s="4">
+        <v>43468</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E23" s="6">
+        <v>3.6060726263026939</v>
+      </c>
+      <c r="F23" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" s="4">
+        <v>43357</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="6">
+        <v>77.891168728138183</v>
+      </c>
+      <c r="F24" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A25" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C25" s="4">
+        <v>43328</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" s="6">
+        <v>193.39367494861347</v>
+      </c>
+      <c r="F25" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="4">
+        <v>43284</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="6">
+        <v>1254.4805452381811</v>
+      </c>
+      <c r="F26" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4">
+        <v>43469</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="6">
+        <v>38.945584364069092</v>
+      </c>
+      <c r="F27" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A28" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="4">
+        <v>43486</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E28" s="6">
+        <v>93.036673758609496</v>
+      </c>
+      <c r="F28" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A29" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="4">
+        <v>43481</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="6">
+        <v>62.727633334535362</v>
+      </c>
+      <c r="F29" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A30" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C30" s="4">
+        <v>43442</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="6">
+        <v>36.595627035928501</v>
+      </c>
+      <c r="F30" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A31" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C31" s="4">
+        <v>43446</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="6">
+        <v>365.98031084346042</v>
+      </c>
+      <c r="F31" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A32" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C32" s="4">
+        <v>43411</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="6">
+        <v>470.41818422223025</v>
+      </c>
+      <c r="F32" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A33" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="4">
+        <v>43378</v>
+      </c>
+      <c r="D33" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="6">
+        <v>5.5233012392869592</v>
+      </c>
+      <c r="F33" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A34" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="4">
+        <v>43401</v>
+      </c>
+      <c r="D34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E34" s="6">
+        <v>25.170386931592802</v>
+      </c>
+      <c r="F34" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A35" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="4">
+        <v>43480</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="6">
+        <v>20.332239491303355</v>
+      </c>
+      <c r="F35" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A36" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C36" s="4">
+        <v>43491</v>
+      </c>
+      <c r="D36" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E36" s="6">
+        <v>5.613453054944527</v>
+      </c>
+      <c r="F36" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A37" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C37" s="4">
+        <v>43390</v>
+      </c>
+      <c r="D37" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E37" s="6">
+        <v>9.4959912492637599</v>
+      </c>
+      <c r="F37" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A38" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="4">
+        <v>43483</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="6">
+        <v>7.5487120310603055</v>
+      </c>
+      <c r="F38" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A39" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C39" s="4">
+        <v>43423</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="6">
+        <v>18.390970394143739</v>
+      </c>
+      <c r="F39" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A40" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="4">
+        <v>43410</v>
+      </c>
+      <c r="D40" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E40" s="6">
+        <v>12.579183344752563</v>
+      </c>
+      <c r="F40" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="4">
+        <v>43441</v>
+      </c>
+      <c r="D41" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="6">
+        <v>132.87175603716659</v>
+      </c>
+      <c r="F41" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A42" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="C42" s="4">
+        <v>43448</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E42" s="6">
+        <v>86.113014316108334</v>
+      </c>
+      <c r="F42" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A43" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C43" s="4">
+        <v>43484</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" s="6">
+        <v>368.78703737093264</v>
+      </c>
+      <c r="F43" s="14">
+        <f t="shared" si="0"/>
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A44" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C44" s="4">
+        <v>43387</v>
+      </c>
+      <c r="D44" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E44" s="6">
+        <v>87.549433245585561</v>
+      </c>
+      <c r="F44" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="4">
+        <v>43382</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E45" s="6">
+        <v>119.75166179846862</v>
+      </c>
+      <c r="F45" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A46" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C46" s="4">
+        <v>43317</v>
+      </c>
+      <c r="D46" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E46" s="6">
+        <v>47.708340845984637</v>
+      </c>
+      <c r="F46" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
+      <c r="A47" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B47" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="5">
+        <v>43257</v>
+      </c>
+      <c r="D47" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E47" s="8">
+        <v>33.133797314677921</v>
+      </c>
+      <c r="F47" s="14">
+        <f t="shared" si="0"/>
+        <v>2018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>